--- a/Projects/NESTLEUK_SAND/Data/Template.xlsx
+++ b/Projects/NESTLEUK_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchy" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,87 +29,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
-  <si>
-    <t>Set Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Scene Types to Include</t>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>is visible</t>
-  </si>
-  <si>
-    <t>Impulse - Confectionery EPU, Impulse - Confectionery Food to Go</t>
-  </si>
-  <si>
-    <t>Accessible</t>
-  </si>
-  <si>
-    <t>inside the diamond</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>adjacent to any other SKU with a Mint attribute</t>
-  </si>
-  <si>
-    <t>Bottom shelf</t>
-  </si>
-  <si>
-    <t>is the bottom shelf</t>
-  </si>
-  <si>
-    <t>Adjacent</t>
-  </si>
-  <si>
-    <t>product_ean_code</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>7613035738539, 761303573811, 50189779, 5025179, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
-  </si>
-  <si>
-    <t>shelf_number_from_bottom</t>
-  </si>
-  <si>
-    <t>shelf_percent</t>
-  </si>
-  <si>
-    <t>7613035738539, 761303573811</t>
-  </si>
-  <si>
-    <t>adjacent_type</t>
-  </si>
-  <si>
-    <t>adjacent_value</t>
-  </si>
-  <si>
-    <t>50189779, 5025179</t>
-  </si>
-  <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>Mints</t>
-  </si>
-  <si>
-    <t>7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">Set Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Types to Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse - Confectionery EPU, Impulse - Confectionery Food to Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inside the diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjacent to any other SKU with a Mint attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is the bottom shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7613035738539, 761303573811, 50189779, 5025179, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number_from_bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7613035738539, 761303573811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjacent_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjacent_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50189779, 5025179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -348,9 +348,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4331983805668"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="61.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -464,8 +464,8 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.9109311740891"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1013" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1022" min="1014" style="6" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
@@ -512,16 +512,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1015" min="6" style="8" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.10526315789474"/>
   </cols>
@@ -551,7 +551,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>100</v>
@@ -576,22 +576,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1015" min="6" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1023" min="1016" style="6" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1014" min="5" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1022" min="1015" style="6" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,11 +606,8 @@
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -623,9 +619,6 @@
       </c>
       <c r="D2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -646,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="14.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39.7408906882591"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="8" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1013" min="4" style="8" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="9.10526315789474"/>

--- a/Projects/NESTLEUK_SAND/Data/Template.xlsx
+++ b/Projects/NESTLEUK_SAND/Data/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchy" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Visible" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Visible" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Bottom shelf" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Adjacent" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Diamond" sheetId="5" state="visible" r:id="rId6"/>
@@ -67,22 +67,22 @@
     <t xml:space="preserve">adjacent to any other SKU with a Mint attribute</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is the bottom shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bottom shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">is the bottom shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjacent</t>
-  </si>
-  <si>
     <t xml:space="preserve">product_ean_code</t>
   </si>
   <si>
     <t xml:space="preserve">Target</t>
   </si>
   <si>
-    <t xml:space="preserve">7613035738539, 761303573811, 50189779, 5025179, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
+    <t xml:space="preserve">7613035738539, 7613035738119, 50189779, 50251797, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
   </si>
   <si>
     <t xml:space="preserve">shelf_number_from_bottom</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">shelf_percent</t>
   </si>
   <si>
-    <t xml:space="preserve">7613035738539, 761303573811</t>
+    <t xml:space="preserve">7613035738539, 7613035738119</t>
   </si>
   <si>
     <t xml:space="preserve">adjacent_type</t>
@@ -100,16 +100,16 @@
     <t xml:space="preserve">adjacent_value</t>
   </si>
   <si>
-    <t xml:space="preserve">50189779, 5025179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
+    <t xml:space="preserve">50189779, 50251797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVA_Attributes</t>
   </si>
   <si>
     <t xml:space="preserve">Mints</t>
   </si>
   <si>
-    <t xml:space="preserve">7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
+    <t xml:space="preserve">7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 7613034959287</t>
   </si>
 </sst>
 </file>
@@ -338,19 +338,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="63.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -439,6 +439,7 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -458,13 +459,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1013" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1022" min="1014" style="6" width="9.10526315789474"/>
@@ -482,7 +483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -512,14 +513,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="29.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="8" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="8" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1015" min="6" style="8" width="9.10526315789474"/>
@@ -543,7 +544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -578,15 +579,15 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1014" min="5" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1022" min="1015" style="6" width="9.10526315789474"/>
@@ -640,13 +641,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="39.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="40.7044534412955"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="8" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1013" min="4" style="8" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="9.10526315789474"/>
@@ -663,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
